--- a/Papers/Informazioni_papers.xlsx
+++ b/Papers/Informazioni_papers.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b0cf9025b80608d/Università/Magistrale Secondo Anno/Computational_fluid_dynamics/Progetto_CFD/progetto_CFD/Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4D5CB4E552A5DACE1C6459A09965825ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55359A39-A0CA-4A2C-8B7D-53C0F71D3599}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D5CB4E552A5DACE1C6459A09965825ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77896064-69F8-40B5-9327-387C38DBEC5A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="experimental_leishman" sheetId="1" r:id="rId1"/>
-    <sheet name="experimental_zanotti" sheetId="2" r:id="rId2"/>
-    <sheet name="numerical_zanotti" sheetId="3" r:id="rId3"/>
+    <sheet name="Dati papers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,36 +339,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6A5081-153F-4046-8D01-B1DB331D76AD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB107EC-35D7-4005-BC6D-EBE66740AFA8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Papers/Informazioni_papers.xlsx
+++ b/Papers/Informazioni_papers.xlsx
@@ -5,28 +5,329 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b0cf9025b80608d/Università/Magistrale Secondo Anno/Computational_fluid_dynamics/Progetto_CFD/progetto_CFD/Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive - Politecnico di Milano\Documenti\Università\2022-2023 - Quinto Anno\Computational Fluid Dynamics\Project\progetto_CFD\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D5CB4E552A5DACE1C6459A09965825ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77896064-69F8-40B5-9327-387C38DBEC5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EA8FA-E9E0-4B03-8411-2551E859D278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2244" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dati papers" sheetId="1" r:id="rId1"/>
+    <sheet name="Leishman et al." sheetId="2" r:id="rId1"/>
+    <sheet name="Zanotti et al. 2012" sheetId="3" r:id="rId2"/>
+    <sheet name="Zanotti et al. 2014" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Airfoil</t>
+  </si>
+  <si>
+    <t>NACA 23012</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Test section type</t>
+  </si>
+  <si>
+    <t>Test section size B x H</t>
+  </si>
+  <si>
+    <t>octagonal</t>
+  </si>
+  <si>
+    <t>2,13 x 1,61</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <t>Wing size L x C</t>
+  </si>
+  <si>
+    <t>1,61 x 0,55</t>
+  </si>
+  <si>
+    <t>Roughness</t>
+  </si>
+  <si>
+    <t>600 grit paper</t>
+  </si>
+  <si>
+    <t>Hinge position</t>
+  </si>
+  <si>
+    <t>c/4</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
+    <t>sinusoidal</t>
+  </si>
+  <si>
+    <t>Error on coefficients</t>
+  </si>
+  <si>
+    <t>0,8E+06 - 2,0E+06</t>
+  </si>
+  <si>
+    <t>AoA</t>
+  </si>
+  <si>
+    <t>-4 - 28</t>
+  </si>
+  <si>
+    <t>Force measurements</t>
+  </si>
+  <si>
+    <t>pressure integral</t>
+  </si>
+  <si>
+    <t>Moment reference</t>
+  </si>
+  <si>
+    <t>Experiment 1</t>
+  </si>
+  <si>
+    <t>AoA M</t>
+  </si>
+  <si>
+    <t>AoA A</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>υ</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>m^2/s</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>AoA M [°]</t>
+  </si>
+  <si>
+    <t>AoA A [°]</t>
+  </si>
+  <si>
+    <t>k [-]</t>
+  </si>
+  <si>
+    <t>6 - 12 - 20</t>
+  </si>
+  <si>
+    <t>ω [rad/s]</t>
+  </si>
+  <si>
+    <t>f [Hz]</t>
+  </si>
+  <si>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t>Experiment 2</t>
+  </si>
+  <si>
+    <t>2 - 6 - 10</t>
+  </si>
+  <si>
+    <t>0,10 - 0,16 - 0,20</t>
+  </si>
+  <si>
+    <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>General Data</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>Static Test</t>
+  </si>
+  <si>
+    <t>Dynamic Test</t>
+  </si>
+  <si>
+    <t>CFD Cases Summary</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
+    <t>param1</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>param3</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>rectagular</t>
+  </si>
+  <si>
+    <t>1 x 1,5</t>
+  </si>
+  <si>
+    <t>0,93 x 0,3</t>
+  </si>
+  <si>
+    <t>-4 - 25</t>
+  </si>
+  <si>
+    <t>6 - 10 - 15</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>rad/s</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>30m/s in the paper</t>
+  </si>
+  <si>
+    <t>10 - 15</t>
+  </si>
+  <si>
+    <t>PIV</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>Mesurements</t>
+  </si>
+  <si>
+    <t>dual sinusoidal</t>
+  </si>
+  <si>
+    <t>Experiment 4</t>
+  </si>
+  <si>
+    <t>sinusoidal + 4mm Gurney</t>
+  </si>
+  <si>
+    <t>6,00E+05 - 1,00E+06</t>
+  </si>
+  <si>
+    <t>0,3 m 0,3</t>
+  </si>
+  <si>
+    <t>3,20E+01 - 5,33E+01</t>
+  </si>
+  <si>
+    <t>0,075 - 0,075</t>
+  </si>
+  <si>
+    <t>? - ?</t>
+  </si>
+  <si>
+    <t>2,13E+01 - 3,56E+01</t>
+  </si>
+  <si>
+    <t>3,40E+00 - 5,66E+00</t>
+  </si>
+  <si>
+    <t>0,1 - 0,5</t>
+  </si>
+  <si>
+    <t>7 - 1</t>
+  </si>
+  <si>
+    <t>1,42E+01 - 7,10E+01</t>
+  </si>
+  <si>
+    <t>2,26E+00 - 1,13E+01</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +335,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -51,12 +412,695 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="112" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -336,14 +1380,1448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE668A6C-D83D-4C43-AA36-E999892DB9E7}">
+  <dimension ref="B1:X33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="14" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="J4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="52">
+        <v>1500000</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="J5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="J6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="J7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="13">
+        <f>K4*K5/K6</f>
+        <v>43.636363636363633</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="J8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="J9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="J10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="J11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="61"/>
+    </row>
+    <row r="13" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="27">
+        <v>10</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="28">
+        <f>J14*2*K7/K6</f>
+        <v>15.867768595041319</v>
+      </c>
+      <c r="L14" s="29">
+        <f>K14/2/PI()</f>
+        <v>2.5254338077391654</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14">
+        <v>18</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15*2*K7/K6</f>
+        <v>23.801652892561979</v>
+      </c>
+      <c r="L15" s="30">
+        <f>K15/2/PI()</f>
+        <v>3.7881507116087478</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="31">
+        <v>10</v>
+      </c>
+      <c r="I16" s="32">
+        <v>10</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="N19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="60"/>
+      <c r="C24" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="60"/>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="60"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="60"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="61"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="60"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="60"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="61"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="60"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="71"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E2B68-44D4-441C-B5B7-6C4ECA613C3E}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="61"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="72">
+        <v>1000000</v>
+      </c>
+      <c r="I4" s="85">
+        <v>600000</v>
+      </c>
+      <c r="J4" s="85">
+        <v>400000</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="K5" s="95">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="61"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="75">
+        <f>H4*H5/H6</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="I7" s="87">
+        <f>I4*I5/I6</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="37">
+        <f>J4*J5/J6</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="53">
+        <f>H6/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I9" s="35">
+        <f>I6/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J9" s="35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="61"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="61"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="53">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.09</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="61"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="35">
+        <v>15</v>
+      </c>
+      <c r="K12" s="97">
+        <v>10</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="61"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="53">
+        <v>10</v>
+      </c>
+      <c r="I13" s="35">
+        <v>10</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="97">
+        <v>10</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="72">
+        <v>1000000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="75">
+        <f>H14*2*H7/H6</f>
+        <v>35.555555555555564</v>
+      </c>
+      <c r="I15" s="37">
+        <f>I14*2*I7/I6</f>
+        <v>21.333333333333336</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>600000</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="75">
+        <f>H15/2/PI()</f>
+        <v>5.6588424210451693</v>
+      </c>
+      <c r="I16" s="37">
+        <f>I15/2/PI()</f>
+        <v>3.3953054526271012</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="60"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="60"/>
+      <c r="C25" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="60"/>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="60"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="61"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="60"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="60"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="61"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="60"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="60"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="61"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="71"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4091FEF1-7C30-4D89-941F-2170E545667D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Papers/Informazioni_papers.xlsx
+++ b/Papers/Informazioni_papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive - Politecnico di Milano\Documenti\Università\2022-2023 - Quinto Anno\Computational Fluid Dynamics\Project\progetto_CFD\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EA8FA-E9E0-4B03-8411-2551E859D278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635437FF-B574-40CC-AA59-E78ABEB79205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2244" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2244" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leishman et al." sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>Reynolds</t>
   </si>
@@ -322,11 +322,20 @@
   <si>
     <t>2,26E+00 - 1,13E+01</t>
   </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>pressure and PIV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -856,11 +865,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1165,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1387,24 +1484,24 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
-    <col min="14" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="66" t="s">
         <v>49</v>
       </c>
@@ -1425,7 +1522,7 @@
       <c r="L2" s="58"/>
       <c r="M2" s="59"/>
     </row>
-    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1542,7 @@
       </c>
       <c r="M3" s="61"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
@@ -1467,7 +1564,7 @@
       </c>
       <c r="M4" s="61"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1586,7 @@
       </c>
       <c r="M5" s="61"/>
     </row>
-    <row r="6" spans="2:24" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1608,7 @@
       </c>
       <c r="M6" s="61"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1631,7 @@
       </c>
       <c r="M7" s="61"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1654,7 @@
       </c>
       <c r="M8" s="61"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1677,7 @@
       </c>
       <c r="M9" s="61"/>
     </row>
-    <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="68" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1700,7 @@
       </c>
       <c r="M10" s="61"/>
     </row>
-    <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1619,7 +1716,7 @@
       </c>
       <c r="M11" s="61"/>
     </row>
-    <row r="12" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1632,7 +1729,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="61"/>
     </row>
-    <row r="13" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
@@ -1662,7 +1759,7 @@
       </c>
       <c r="M13" s="61"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1794,7 @@
       <c r="M14" s="61"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="49" t="s">
         <v>21</v>
       </c>
@@ -1732,7 +1829,7 @@
       <c r="M15" s="61"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1759,7 +1856,7 @@
       <c r="M16" s="61"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1779,14 +1876,14 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
@@ -1795,13 +1892,13 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="56" t="s">
         <v>53</v>
       </c>
@@ -1818,7 +1915,7 @@
       <c r="M22" s="59"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="60"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1833,7 +1930,7 @@
       <c r="M23" s="61"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="60"/>
       <c r="C24" s="67" t="s">
         <v>54</v>
@@ -1867,7 +1964,7 @@
       </c>
       <c r="M24" s="61"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="C25" s="1" t="s">
         <v>58</v>
@@ -1901,7 +1998,7 @@
       </c>
       <c r="M25" s="61"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1915,7 +2012,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="61"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1929,7 +2026,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="61"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="60"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1943,7 +2040,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="61"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1957,7 +2054,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="61"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="60"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1971,7 +2068,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="61"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1985,7 +2082,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="61"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="60"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1999,7 +2096,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="61"/>
     </row>
-    <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="71"/>
       <c r="C33" s="63"/>
       <c r="D33" s="63"/>
@@ -2022,26 +2119,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E2B68-44D4-441C-B5B7-6C4ECA613C3E}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="66" t="s">
         <v>49</v>
       </c>
@@ -2062,7 +2159,7 @@
       <c r="L2" s="58"/>
       <c r="M2" s="59"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
@@ -2096,7 +2193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2226,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2259,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2292,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2328,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2362,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>23</v>
       </c>
@@ -2301,7 +2398,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="68" t="s">
         <v>19</v>
       </c>
@@ -2335,7 +2432,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2362,7 +2459,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2389,7 +2486,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
@@ -2423,7 +2520,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2554,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="88" t="s">
         <v>21</v>
       </c>
@@ -2493,7 +2590,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2532,7 +2629,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
@@ -2566,7 +2663,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>75</v>
       </c>
@@ -2586,20 +2683,20 @@
       <c r="L18" s="63"/>
       <c r="M18" s="64"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="56" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2713,7 @@
       <c r="M23" s="59"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="60"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2630,7 +2727,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="61"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="C25" s="67" t="s">
         <v>54</v>
@@ -2664,7 +2761,7 @@
       </c>
       <c r="M25" s="61"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
       <c r="C26" s="1" t="s">
         <v>58</v>
@@ -2698,7 +2795,7 @@
       </c>
       <c r="M26" s="61"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2712,7 +2809,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="61"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="60"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2726,7 +2823,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="61"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2740,7 +2837,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="61"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="60"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2754,7 +2851,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="61"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2768,7 +2865,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="61"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="60"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2782,7 +2879,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="61"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="60"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2796,7 +2893,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="61"/>
     </row>
-    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="71"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
@@ -2817,12 +2914,737 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4091FEF1-7C30-4D89-941F-2170E545667D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="84"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="61"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="72">
+        <v>600000</v>
+      </c>
+      <c r="I4" s="85">
+        <v>600000</v>
+      </c>
+      <c r="J4" s="85"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="K5" s="95">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="61"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="97">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="98">
+        <f>H4*H5/H6</f>
+        <v>32</v>
+      </c>
+      <c r="I7" s="87">
+        <f>I4*I5/I6</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="37">
+        <f>J4*J5/J6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
+        <f>K4*K5/K6</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="53">
+        <f>H6/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I9" s="35">
+        <f>I6/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J9" s="35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K9" s="110">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="61"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="61"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="78">
+        <v>0.09</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.09</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="61"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="107"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="100">
+        <v>10</v>
+      </c>
+      <c r="I12" s="99">
+        <v>15</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="61"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="53">
+        <v>10</v>
+      </c>
+      <c r="I13" s="35">
+        <v>10</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="102"/>
+      <c r="B14" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="102"/>
+      <c r="B15" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="75">
+        <f>H14*2*H7/H6</f>
+        <v>21.333333333333336</v>
+      </c>
+      <c r="I15" s="37">
+        <f>I14*2*I7/I6</f>
+        <v>21.333333333333336</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="75">
+        <f>H15/2/PI()</f>
+        <v>3.3953054526271012</v>
+      </c>
+      <c r="I16" s="37">
+        <f>I15/2/PI()</f>
+        <v>3.3953054526271012</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="60"/>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="60"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="61"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="60"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="60"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="61"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="60"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="60"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="61"/>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="71"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>